--- a/documents/testData/article.xlsx
+++ b/documents/testData/article.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Desktop\testDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TeraNavi\documents\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,15 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>article_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fk_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>article_title</t>
     <phoneticPr fontId="1"/>
@@ -49,20 +41,6 @@
   </si>
   <si>
     <t>article_status_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_article3</t>
-  </si>
-  <si>
-    <t>testid1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testid2</t>
-  </si>
-  <si>
-    <t>testid1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -98,14 +76,6 @@
     <rPh sb="10" eb="12">
       <t>スバ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_article2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C_article1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,21 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,67 +437,43 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42356.542013888888</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42329.65625</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>42356.542013888888</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>42329.65625</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1">
         <v>42289.730925925927</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
